--- a/1_Input_data/Table 1 outcomes.xlsx
+++ b/1_Input_data/Table 1 outcomes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56420997-1743-DD43-A7F4-31F66446D993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ED4945-EC46-454A-B85D-FF0DF4C5BD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9167,7 +9167,7 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9320,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -9332,7 +9332,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -9504,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -9578,7 +9578,7 @@
         <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -9750,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -9762,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -9836,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -10020,7 +10020,7 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -10106,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -10180,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -10192,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>1</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -10438,7 +10438,7 @@
         <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -10610,7 +10610,7 @@
         <v>1</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -10696,7 +10696,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -10708,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
         <v>1</v>

--- a/1_Input_data/Table 1 outcomes.xlsx
+++ b/1_Input_data/Table 1 outcomes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ED4945-EC46-454A-B85D-FF0DF4C5BD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC8E957-513D-114B-A1DA-36A33822B8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9167,7 +9167,7 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9290,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -9308,13 +9308,13 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -9323,7 +9323,7 @@
         <v>1</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
         <v>0</v>

--- a/1_Input_data/Table 1 outcomes.xlsx
+++ b/1_Input_data/Table 1 outcomes.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdamen/Documents/GitHub/Zika_imputation/1_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC8E957-513D-114B-A1DA-36A33822B8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822A4E0B-0DF5-D948-BA70-84121E3A8D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22320" windowHeight="22260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Systematic missings" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="781">
   <si>
     <t>X.</t>
   </si>
@@ -2361,6 +2374,9 @@
   </si>
   <si>
     <t>027-BRA</t>
+  </si>
+  <si>
+    <t>microcephaly</t>
   </si>
 </sst>
 </file>
@@ -2715,7 +2731,7 @@
   <dimension ref="A1:AD70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:Y14"/>
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9164,10 +9180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AF1C6A-E6F2-BC45-84F7-EEA47CA680D6}">
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X45" sqref="X45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9272,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -9284,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -9302,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -10720,6 +10736,92 @@
         <v>1</v>
       </c>
       <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>780</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
         <v>0</v>
       </c>
     </row>
